--- a/countries_data.xlsx
+++ b/countries_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliyadavletshina/Desktop/Bocconi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliyadavletshina/Desktop/Bocconi/modeling&amp;simulation/final_project/SMFinal_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>country</t>
   </si>
@@ -35,12 +35,6 @@
     <t>gdp</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>avg_inc</t>
-  </si>
-  <si>
     <t>life_exp</t>
   </si>
   <si>
@@ -69,15 +63,105 @@
   </si>
   <si>
     <t>Finland</t>
+  </si>
+  <si>
+    <t>HDI</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>14977604 </t>
+  </si>
+  <si>
+    <t>8205891 </t>
+  </si>
+  <si>
+    <t>27385383 </t>
+  </si>
+  <si>
+    <t>2903671 </t>
+  </si>
+  <si>
+    <t>7112753 </t>
+  </si>
+  <si>
+    <t>95029086 </t>
+  </si>
+  <si>
+    <t>23276682 </t>
+  </si>
+  <si>
+    <t>5364520 </t>
+  </si>
+  <si>
+    <t>70128842 </t>
+  </si>
+  <si>
+    <t>56494771 </t>
+  </si>
+  <si>
+    <t>5682966 </t>
+  </si>
+  <si>
+    <t>2177390 </t>
+  </si>
+  <si>
+    <t>623201 </t>
+  </si>
+  <si>
+    <t>19515209 </t>
+  </si>
+  <si>
+    <t>6443938 </t>
+  </si>
+  <si>
+    <t>2324455 </t>
+  </si>
+  <si>
+    <t>3289652 </t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,11 +196,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,7 +494,7 @@
     <col min="1" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,166 +502,596 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>71.544030000000006</v>
+      </c>
+      <c r="D2" s="6">
+        <v>14.43</v>
+      </c>
+      <c r="E2" s="6">
+        <v>76.933000000000007</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13.37</v>
+      </c>
+      <c r="E3" s="6">
+        <v>75.596000000000004</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>149776.04</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>72.441670000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14.21</v>
+      </c>
+      <c r="E4" s="6">
+        <v>77.302999999999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>77.2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12.07</v>
+      </c>
+      <c r="E5" s="6">
+        <v>73.509</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>54.444679999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>13.51</v>
+      </c>
+      <c r="E6" s="6">
+        <v>74.941000000000003</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>65.45</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13.36</v>
+      </c>
+      <c r="E7" s="6">
+        <v>75.254000000000005</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D8" s="6">
+        <v>13.45</v>
+      </c>
+      <c r="E8" s="6">
+        <v>76.757000000000005</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>63.55</v>
+      </c>
+      <c r="D9" s="6">
+        <v>13.54</v>
+      </c>
+      <c r="E9" s="6">
+        <v>75.488</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>68.375</v>
+      </c>
+      <c r="D10" s="6">
+        <v>12.48</v>
+      </c>
+      <c r="E10" s="6">
+        <v>76.552000000000007</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13.15</v>
+      </c>
+      <c r="E11" s="6">
+        <v>74.808999999999997</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13.28</v>
+      </c>
+      <c r="E12" s="6">
+        <v>75.159000000000006</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>67</v>
+      </c>
+      <c r="D13" s="6">
+        <v>14.21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>76.992999999999995</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>76</v>
+      </c>
+      <c r="D14" s="6">
+        <v>14.11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>75.36</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14.43</v>
+      </c>
+      <c r="E15" s="6">
+        <v>76.728999999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>74.504000000000005</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>77.215000000000003</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C18" s="5">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6">
+        <v>14.16</v>
+      </c>
+      <c r="E18" s="6">
+        <v>77.637</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6">
+        <v>14.08</v>
+      </c>
+      <c r="E19" s="6">
+        <v>77.567999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5">
+        <v>75985</v>
+      </c>
+      <c r="C20" s="5">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6">
+        <v>13.59</v>
+      </c>
+      <c r="E20" s="6">
+        <v>75.688999999999993</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5">
+        <v>87490</v>
+      </c>
+      <c r="C21" s="5">
+        <v>63</v>
+      </c>
+      <c r="D21" s="6">
+        <v>14.37</v>
+      </c>
+      <c r="E21" s="6">
+        <v>75.245999999999995</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>234567</v>
+      </c>
+      <c r="C22" s="5">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="E22" s="6">
+        <v>76.552000000000007</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>123424</v>
+      </c>
+      <c r="C23" s="5">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8">
+        <v>13.76</v>
+      </c>
+      <c r="E23" s="6">
+        <v>74.808999999999997</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>123567</v>
+      </c>
+      <c r="C24" s="5">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>75.159000000000006</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>654345</v>
+      </c>
+      <c r="C25" s="5">
+        <v>70.5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>14.12</v>
+      </c>
+      <c r="E25" s="8">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>456765</v>
+      </c>
+      <c r="C26" s="5">
+        <v>71.7</v>
+      </c>
+      <c r="D26" s="8">
+        <v>14.12</v>
+      </c>
+      <c r="E26" s="8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5">
+        <v>345423</v>
+      </c>
+      <c r="C27" s="5">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8">
+        <v>14.14</v>
+      </c>
+      <c r="E27" s="8">
+        <v>77.3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="5">
+        <v>234543</v>
+      </c>
+      <c r="C28" s="5">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D28" s="8">
+        <v>13.54</v>
+      </c>
+      <c r="E28" s="8">
+        <v>72.3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5">
+        <v>34543</v>
+      </c>
+      <c r="C29" s="5">
+        <v>69</v>
+      </c>
+      <c r="D29" s="8">
+        <v>13.98</v>
+      </c>
+      <c r="E29" s="8">
+        <v>74</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>82058.91</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>273853.83</v>
-      </c>
-      <c r="C4" s="1">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>29036.71</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>71127.53</v>
-      </c>
-      <c r="C6" s="1">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>950290.86</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>71127.53</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>232766.82</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>53645.2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
+      <c r="B30" s="5">
+        <v>123454</v>
+      </c>
+      <c r="C30" s="5">
+        <v>72</v>
+      </c>
+      <c r="D30" s="8">
+        <v>14.42</v>
+      </c>
+      <c r="E30" s="8">
+        <v>75</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
